--- a/fangqia/evidence.xlsx
+++ b/fangqia/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28460" windowHeight="17100"/>
+    <workbookView windowWidth="17280" windowHeight="16220" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>TeamName</t>
   </si>
@@ -94,34 +94,61 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>843FF61D8E9A8783E303C69FB9BEB541E944EAA65E49B7107DD811CCCC7CB6DF</t>
+  </si>
+  <si>
+    <t>goniriscollectionid</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>FD37A5AE8475B0E48D2611534EE2147704DE7CBC9AF47EDA0A03A024997071A4</t>
+  </si>
+  <si>
+    <t>gonirisnftid1</t>
+  </si>
+  <si>
+    <t>A5F335A4AFAD0C25ED32F02D993DD25BE968A09567914C97FA532B9158712801</t>
+  </si>
+  <si>
+    <t>gonirisnftid2</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>B7904783AC05027F79F54BD0B6C3D1C15B61871760D29FC4B683892046DDBDAB</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>F2904DD52A30950FA9494A96A279BD38BAA3BF8503149D569A18DF6AEAF9611E</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>1024BF80BDBFDA29B6291529649A4FBBDB81E0DAC087A90287B04EA512EF467D</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/goniriscollectionid</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>27FA984A626D4A333620F922ACEF218916DE954609F1B0C8C95E9F7D5EE21095</t>
+  </si>
+  <si>
+    <t>ibc/3DF9E9559818ED497EB1ED304E6FD24E8AFDEEAECDE7473614E4405BB16D8B6F</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -144,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -163,6 +190,18 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -180,7 +219,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,16 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,11 +293,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,15 +310,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,7 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,50 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -338,115 +377,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,67 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +584,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,7 +608,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -615,175 +658,175 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1101,12 +1144,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="7"/>
@@ -1150,25 +1193,25 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1197,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1221,10 +1264,10 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -1252,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1276,10 +1319,10 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -1307,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1331,10 +1374,10 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -1362,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1386,10 +1429,10 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -1417,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1436,25 +1479,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1480,7 +1523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1499,25 +1542,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1543,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1562,25 +1605,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1606,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1625,25 +1668,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1669,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1688,25 +1731,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1732,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1751,25 +1794,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1795,12 +1838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
@@ -1850,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1869,25 +1912,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1913,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1932,25 +1975,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1"/>
@@ -1976,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -1996,12 +2039,12 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2028,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -2048,12 +2091,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2080,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -2100,12 +2143,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2132,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -2152,12 +2195,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2184,17 +2227,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="82.6923076923077" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="20" width="15" customWidth="1"/>
   </cols>
@@ -2212,13 +2256,232 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1"/>
+    <row r="5" ht="19" customHeight="1"/>
+    <row r="6" ht="19" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1"/>
+    <row r="8" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1"/>
+    <row r="10" ht="19" customHeight="1"/>
+    <row r="11" ht="19" customHeight="1"/>
+    <row r="12" ht="19" customHeight="1"/>
+    <row r="13" ht="19" customHeight="1"/>
+    <row r="14" ht="19" customHeight="1"/>
+    <row r="15" ht="19" customHeight="1"/>
+    <row r="16" ht="19" customHeight="1"/>
+    <row r="17" ht="19" customHeight="1"/>
+    <row r="18" ht="19" customHeight="1"/>
+    <row r="19" ht="19" customHeight="1"/>
+    <row r="20" ht="19" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="98.875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="20" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" ht="19" customHeight="1"/>
+    <row r="5" ht="19" customHeight="1"/>
+    <row r="6" ht="19" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1"/>
+    <row r="8" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1"/>
+    <row r="10" ht="19" customHeight="1"/>
+    <row r="11" ht="19" customHeight="1"/>
+    <row r="12" ht="19" customHeight="1"/>
+    <row r="13" ht="19" customHeight="1"/>
+    <row r="14" ht="19" customHeight="1"/>
+    <row r="15" ht="19" customHeight="1"/>
+    <row r="16" ht="19" customHeight="1"/>
+    <row r="17" ht="19" customHeight="1"/>
+    <row r="18" ht="19" customHeight="1"/>
+    <row r="19" ht="19" customHeight="1"/>
+    <row r="20" ht="19" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="20" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" ht="19" customHeight="1"/>
+    <row r="5" ht="19" customHeight="1"/>
+    <row r="6" ht="19" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1"/>
+    <row r="8" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1"/>
+    <row r="10" ht="19" customHeight="1"/>
+    <row r="11" ht="19" customHeight="1"/>
+    <row r="12" ht="19" customHeight="1"/>
+    <row r="13" ht="19" customHeight="1"/>
+    <row r="14" ht="19" customHeight="1"/>
+    <row r="15" ht="19" customHeight="1"/>
+    <row r="16" ht="19" customHeight="1"/>
+    <row r="17" ht="19" customHeight="1"/>
+    <row r="18" ht="19" customHeight="1"/>
+    <row r="19" ht="19" customHeight="1"/>
+    <row r="20" ht="19" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="20" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2245,20 +2508,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:4">
@@ -2272,21 +2537,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2313,48 +2578,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:4">
+    <row r="1" ht="21" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:4">
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2381,146 +2633,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="20" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
-    <row r="4" ht="19" customHeight="1"/>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
-    <row r="12" ht="19" customHeight="1"/>
-    <row r="13" ht="19" customHeight="1"/>
-    <row r="14" ht="19" customHeight="1"/>
-    <row r="15" ht="19" customHeight="1"/>
-    <row r="16" ht="19" customHeight="1"/>
-    <row r="17" ht="19" customHeight="1"/>
-    <row r="18" ht="19" customHeight="1"/>
-    <row r="19" ht="19" customHeight="1"/>
-    <row r="20" ht="19" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="20" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
-    <row r="4" ht="19" customHeight="1"/>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
-    <row r="12" ht="19" customHeight="1"/>
-    <row r="13" ht="19" customHeight="1"/>
-    <row r="14" ht="19" customHeight="1"/>
-    <row r="15" ht="19" customHeight="1"/>
-    <row r="16" ht="19" customHeight="1"/>
-    <row r="17" ht="19" customHeight="1"/>
-    <row r="18" ht="19" customHeight="1"/>
-    <row r="19" ht="19" customHeight="1"/>
-    <row r="20" ht="19" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -2544,65 +2658,10 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
-    <row r="4" ht="19" customHeight="1"/>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
-    <row r="12" ht="19" customHeight="1"/>
-    <row r="13" ht="19" customHeight="1"/>
-    <row r="14" ht="19" customHeight="1"/>
-    <row r="15" ht="19" customHeight="1"/>
-    <row r="16" ht="19" customHeight="1"/>
-    <row r="17" ht="19" customHeight="1"/>
-    <row r="18" ht="19" customHeight="1"/>
-    <row r="19" ht="19" customHeight="1"/>
-    <row r="20" ht="19" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>

--- a/fangqia/evidence.xlsx
+++ b/fangqia/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="16220" firstSheet="6" activeTab="6"/>
+    <workbookView windowWidth="29820" windowHeight="13780" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
   <si>
     <t>TeamName</t>
   </si>
@@ -145,19 +145,148 @@
     <t>ibc/3DF9E9559818ED497EB1ED304E6FD24E8AFDEEAECDE7473614E4405BB16D8B6F</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/A3A098114F82C97058B3891331B3FC0F43BCC36DFAC532427E8CBB5B682C384B</t>
+  </si>
+  <si>
+    <t>ibc/23B18086C6DB7F29AA4F95CFB7869A2499A010E10CCFCD4FFACAFCE1155287A0</t>
+  </si>
+  <si>
+    <t>gonirisnftid</t>
+  </si>
+  <si>
+    <t>ibc/542551C3C21E3B4BD4A369669150319A752AAD852C73CD49BCD7ED338F785811</t>
+  </si>
+  <si>
+    <t>ibc/05D7CC1B4F9B6D66DDEC8CB8268A423E35BA8E3485E167274484FEBCC61558E1</t>
+  </si>
+  <si>
+    <t>goniriscollectionidA10</t>
+  </si>
+  <si>
+    <t>ibc/2A6EC7DAF7EFBB431B371D7F02C303B84A3E4D77A1DC2F08A47B9B1A1D9CA7BB</t>
+  </si>
+  <si>
+    <t>goniriscollectionidA11</t>
+  </si>
+  <si>
+    <t> ibc/D13574D62D1E18C58AD10A38D58AA09219293751018538D8EC9EC7A66C108A46</t>
+  </si>
+  <si>
+    <t>goniriscollectionidA12</t>
+  </si>
+  <si>
+    <t>87A4588C036D4004BF921B95ED416B2A60D33DD2CA07FAD720AAF189E12CAE8C</t>
+  </si>
+  <si>
+    <t>52DD9A337E184768B3A470653478A93B1A5358A7D89F14E168B3BB5B6D05E070</t>
+  </si>
+  <si>
+    <t>87358BA712B74BEF945DFF2F11524E0488A75FCE9C8A7A8CC1995ED9CB9431AC</t>
+  </si>
+  <si>
+    <t>3750A49E24BBEC0175D9F667BC911916756DAE05416CECB67D8DD2BEDBCD6965</t>
+  </si>
+  <si>
+    <t>9E9B4E86AEBC95835A9464DE12152AE2B3CB338A802C9257EFE3633B6A245C3E</t>
+  </si>
+  <si>
+    <t>5940D439173A397702DA07056EFD06AA5776FE2A8B0B90EEDF219779E469DADA</t>
+  </si>
+  <si>
+    <t>F868B1AFB63D1C3458E1D02F426389909998009BA3D990F778A98652398E060B</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>1CE8D73B0090945CE101C0982953AC223F4CF043DBAFD422E4106A2D849C1788</t>
+  </si>
+  <si>
+    <t>24FEB6C79920F0AEE295D190ABCC1DAD4077B0140DA0CF8EB9B81B1264294878</t>
+  </si>
+  <si>
+    <t>CD4D9DA6C55631D1009E0E1B54F263292831C1D4908B0D5EDB491E0B426E6D66</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>16E1346A1BFCE239601BF2EA978E4ED0CB379A4C6669A62E0E8DBB054BEC5D98</t>
+  </si>
+  <si>
+    <t>3823902F5E1298D6947BF25C8204C2383736EAED6085A7739DADA83ACB4B8298</t>
+  </si>
+  <si>
+    <t>C7EC6BA340CE69E788B8DDC1B77207149AC1C8F0F14FCD0D72CC988F762FFA2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>7F26C652A404D80EE640F20095D590BE854BB5BFA1F9712C61DADE72F8AE32AD</t>
+  </si>
+  <si>
+    <t>84ECFDAEF327B2A356A5AEC086ECFCEB429906D057AFE119D10F5BCF2F34D709</t>
+  </si>
+  <si>
+    <t>31B6043483D99646DF1B69728BAE0863BA59EFF79F3A8FD9EDD04FFC08877A9D</t>
+  </si>
+  <si>
+    <t>DE08EA91F1498521A01B791A7B0CBF337060CA7C18133F0292B27E17614E580F</t>
+  </si>
+  <si>
+    <t>818C0DB4779FDC223BD91F62F8FC41CBFC3F012930BBF41F6CCBEFC02A3F6566</t>
+  </si>
+  <si>
+    <t>2CEF8CEF87A81B14B8EF418F1A394D5386E7C74D7C63FA5F675A24C8BBF7B7C6</t>
+  </si>
+  <si>
+    <t>9E45A9E043B1107BC797763463D49A2A336E22FE1496684CB9E69EB9295214ED</t>
+  </si>
+  <si>
+    <t>BF128CBE69CA2D8BE7C3E92B9CB8FC5A20F04F959C8E0A1C892CA26C57922CF5</t>
+  </si>
+  <si>
+    <t>0A05C4F61D8EDC41FB7B149C5589CD0A2CC609363345CF13AD3FF01061A34449</t>
+  </si>
+  <si>
+    <t>D685596A1B763A68D52B8AEE9371024107A9825505D80B09ABCD7C5675507C3C</t>
+  </si>
+  <si>
+    <t>1C1A32AA53F8D14396D278B787CAEACA928016B88164DF2132EFB2C5629375A0</t>
+  </si>
+  <si>
+    <t>3C1B8341DD754DF3DF2561EDCC39425C5A362DD122D07B36FC85CE19D5774B64</t>
+  </si>
+  <si>
+    <t>79581C512BE17C47A4B08C046CBA7CB3FFEA2E691D337EE3AC963EB081A488B1</t>
+  </si>
+  <si>
+    <t>8D6894F21227DF437E2AA7641950B3D7673079EA5E4319E13A826E8040615998</t>
+  </si>
+  <si>
+    <t>FB153B15C49162B829A34BCF8F4AAD25D99944706FA164809D4187F5B1DE204E</t>
+  </si>
+  <si>
+    <t>4CBDBB94CDF860217633C57AF4B228F0271D624AA32E97D5B84018579026CA57</t>
+  </si>
+  <si>
+    <t>013D62D2A4BCBEFB3027818895A013BDAA6B03806B0902798FBA89CCCD1B7C34</t>
+  </si>
+  <si>
+    <t>5A88FD3082222210CD4029DDE02ECBD335DB7E4EB3FB8567333F2750E6656727</t>
+  </si>
+  <si>
+    <t>1D0C5257B494F6871CAA68479917FBE80B7A3F3C20D79962B48544792121C892</t>
+  </si>
+  <si>
+    <t>EE4DD0D9DEA11251EFA34386614A2389485EC005ECAF7B531BFAE1E96771AFFE</t>
+  </si>
+  <si>
+    <t>80D0D748E9C91AEBD6DA48ED7F3CF4A59ADB2D0B680DBDE042452BB7DA960F0D</t>
+  </si>
+  <si>
+    <t>E08E307887F536D0E3BE4304B735961569DC88EE3BAFBE9CF06E76D21391F7DF</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -171,12 +300,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -192,9 +321,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A202C"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <charset val="134"/>
     </font>
     <font>
@@ -226,29 +396,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -264,16 +419,93 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,77 +524,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,25 +540,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,55 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,85 +702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,30 +745,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +769,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,173 +831,208 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1144,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -1193,25 +1399,25 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1240,17 +1446,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="115.538461538462" customWidth="1"/>
     <col min="2" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1262,23 +1468,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
+    <row r="2" ht="21" customHeight="1" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
-    <row r="4" ht="19" customHeight="1"/>
+        <v>24</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="3:3">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="3:3">
+      <c r="C4" s="16"/>
+    </row>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1" spans="1:1">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:1">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:1">
+      <c r="A11" s="8"/>
+    </row>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
     <row r="14" ht="19" customHeight="1"/>
@@ -1295,18 +1512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="97.9134615384615" customWidth="1"/>
+    <col min="2" max="2" width="26.6057692307692" customWidth="1"/>
+    <col min="3" max="3" width="94.3846153846154" customWidth="1"/>
+    <col min="4" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
@@ -1318,19 +1537,25 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
+      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="3:3">
+      <c r="C3" s="12"/>
+    </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="1:1">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" ht="19" customHeight="1" spans="1:1">
+      <c r="A8" s="8"/>
+    </row>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
@@ -1350,18 +1575,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="81.4134615384615" customWidth="1"/>
+    <col min="2" max="2" width="30.1153846153846" customWidth="1"/>
+    <col min="3" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
@@ -1372,22 +1598,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" ht="19" customHeight="1"/>
-    <row r="4" ht="19" customHeight="1"/>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
+    <row r="4" ht="19" customHeight="1" spans="4:4">
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="4:4">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="4:4">
+      <c r="D6" s="12"/>
+    </row>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1" spans="1:1">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:1">
+      <c r="A10" s="8"/>
+    </row>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
@@ -1405,54 +1643,59 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="58.0096153846154" defaultRowHeight="41" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="77.4038461538462" customWidth="1"/>
+    <col min="2" max="2" width="58.0096153846154" customWidth="1"/>
+    <col min="3" max="3" width="28.0384615384615" customWidth="1"/>
+    <col min="4" max="16384" width="58.0096153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
-    <row r="4" ht="19" customHeight="1"/>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
-    <row r="12" ht="19" customHeight="1"/>
-    <row r="13" ht="19" customHeight="1"/>
-    <row r="14" ht="19" customHeight="1"/>
-    <row r="15" ht="19" customHeight="1"/>
-    <row r="16" ht="19" customHeight="1"/>
-    <row r="17" ht="19" customHeight="1"/>
-    <row r="18" ht="19" customHeight="1"/>
-    <row r="19" ht="19" customHeight="1"/>
-    <row r="20" ht="19" customHeight="1"/>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="4:4">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="4:4">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="4:4">
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" customHeight="1" spans="4:4">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" customHeight="1" spans="4:4">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1460,18 +1703,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="75.7980769230769" customWidth="1"/>
+    <col min="2" max="2" width="24.5192307692308" customWidth="1"/>
+    <col min="3" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
@@ -1484,30 +1728,49 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
-    <row r="12" ht="19" customHeight="1"/>
+    <row r="11" ht="19" customHeight="1" spans="1:1">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:1">
+      <c r="A12" s="8"/>
+    </row>
     <row r="13" ht="19" customHeight="1"/>
     <row r="14" ht="19" customHeight="1"/>
     <row r="15" ht="19" customHeight="1"/>
@@ -1523,17 +1786,17 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="74.1923076923077" customWidth="1"/>
     <col min="2" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1545,33 +1808,54 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
+    <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
+        <v>51</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="2:2">
+      <c r="B6" s="13"/>
+    </row>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
-    <row r="12" ht="19" customHeight="1"/>
-    <row r="13" ht="19" customHeight="1"/>
+    <row r="12" ht="19" customHeight="1" spans="1:1">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:1">
+      <c r="A13" s="8"/>
+    </row>
     <row r="14" ht="19" customHeight="1"/>
     <row r="15" ht="19" customHeight="1"/>
     <row r="16" ht="19" customHeight="1"/>
@@ -1586,18 +1870,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="76.9134615384615" customWidth="1"/>
+    <col min="2" max="2" width="25.9615384615385" customWidth="1"/>
+    <col min="3" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
@@ -1610,29 +1895,46 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
+    <row r="10" ht="19" customHeight="1" spans="1:1">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:1">
+      <c r="A11" s="8"/>
+    </row>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
     <row r="14" ht="19" customHeight="1"/>
@@ -1649,17 +1951,17 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="72.1153846153846" customWidth="1"/>
     <col min="2" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1671,30 +1973,52 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
+    <row r="2" ht="21" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
+        <v>62</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1" spans="1:1">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:1">
+      <c r="A10" s="8"/>
+    </row>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
@@ -1712,17 +2036,17 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="69.7115384615385" customWidth="1"/>
     <col min="2" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1736,27 +2060,42 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1" spans="1:1">
+      <c r="A9" s="10"/>
+    </row>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
@@ -1775,18 +2114,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="73.5480769230769" customWidth="1"/>
+    <col min="2" max="2" width="36.5288461538462" customWidth="1"/>
+    <col min="3" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
@@ -1799,28 +2139,45 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
+    <row r="9" ht="19" customHeight="1" spans="1:1">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:1">
+      <c r="A10" s="8"/>
+    </row>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
@@ -1838,12 +2195,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
@@ -1893,17 +2250,17 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="81.4038461538462" customWidth="1"/>
     <col min="2" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1917,29 +2274,62 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="19" customHeight="1" spans="2:2">
+      <c r="B8" s="6"/>
+    </row>
     <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
+    <row r="10" ht="19" customHeight="1" spans="1:1">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:1">
+      <c r="A11" s="8"/>
+    </row>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
     <row r="14" ht="19" customHeight="1"/>
@@ -1956,18 +2346,19 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="116.173076923077" customWidth="1"/>
+    <col min="2" max="2" width="21.4711538461538" customWidth="1"/>
+    <col min="3" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
@@ -1980,29 +2371,62 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
+        <v>80</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
+    <row r="10" ht="45" customHeight="1" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
     <row r="14" ht="19" customHeight="1"/>
@@ -2019,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -2039,12 +2463,12 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2071,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -2091,12 +2515,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2123,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -2143,12 +2567,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2175,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -2195,12 +2619,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2227,12 +2651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="2"/>
@@ -2258,10 +2682,10 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2269,10 +2693,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2300,7 +2724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2334,13 +2758,13 @@
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2371,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2404,13 +2828,13 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2441,7 +2865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2480,7 +2904,7 @@
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2509,11 +2933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2550,7 +2974,7 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2579,18 +3003,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="55.2884615384615" customWidth="1"/>
+    <col min="2" max="2" width="20.1826923076923" customWidth="1"/>
+    <col min="3" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
@@ -2601,18 +3026,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
+        <v>22</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="4:4">
+      <c r="D3" s="12"/>
+    </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
+    <row r="6" ht="19" customHeight="1" spans="1:1">
+      <c r="A6" s="10"/>
+    </row>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
@@ -2634,17 +3065,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="100.153846153846" customWidth="1"/>
     <col min="2" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2656,19 +3087,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" ht="19" customHeight="1"/>
+      <c r="B2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="4:4">
+      <c r="D3" s="12"/>
+    </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="1:1">
+      <c r="A7" s="7"/>
+    </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>

--- a/fangqia/evidence.xlsx
+++ b/fangqia/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="13780" firstSheet="12" activeTab="20"/>
+    <workbookView windowWidth="29820" windowHeight="13780" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>TeamName</t>
   </si>
@@ -115,16 +115,34 @@
     <t>gonirisnftid2</t>
   </si>
   <si>
+    <t>DF62B0F47F4A8DC3BC17CE6D54514CCDAC03E05483CBB998A2FD11F5A5007233</t>
+  </si>
+  <si>
+    <t>goniriscollectionida3</t>
+  </si>
+  <si>
+    <t>051C75E6405D71C949E74229E791F5434DA4480CAD4357611A792F35965BE66D</t>
+  </si>
+  <si>
+    <t>goniriscollectionida4</t>
+  </si>
+  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>B7904783AC05027F79F54BD0B6C3D1C15B61871760D29FC4B683892046DDBDAB</t>
+    <t>C087A9D582889F8A65DA04B4F2B8F85B01C8BAE487847F5A07676AC150D7C5D4</t>
+  </si>
+  <si>
+    <t>stars1cjzeecelkdrs6vemddnsm642qmrlyczv0ayww06y9tpc50c3spesglz6ee</t>
   </si>
   <si>
     <t>elgafar-1</t>
   </si>
   <si>
-    <t>F2904DD52A30950FA9494A96A279BD38BAA3BF8503149D569A18DF6AEAF9611E</t>
+    <t>2E6BC824A67BB546E2B30262F15C982D9B9200DAA053EB32BCB8D3388A7FEC66</t>
+  </si>
+  <si>
+    <t>ibc/3DF9E9559818ED497EB1ED304E6FD24E8AFDEEAECDE7473614E4405BB16D8B6F</t>
   </si>
   <si>
     <t>uptick_7000-2</t>
@@ -133,51 +151,48 @@
     <t>1024BF80BDBFDA29B6291529649A4FBBDB81E0DAC087A90287B04EA512EF467D</t>
   </si>
   <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/goniriscollectionid</t>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>27FA984A626D4A333620F922ACEF218916DE954609F1B0C8C95E9F7D5EE21095</t>
+  </si>
+  <si>
+    <t>ibc/A3A098114F82C97058B3891331B3FC0F43BCC36DFAC532427E8CBB5B682C384B</t>
+  </si>
+  <si>
+    <t>ibc/23B18086C6DB7F29AA4F95CFB7869A2499A010E10CCFCD4FFACAFCE1155287A0</t>
+  </si>
+  <si>
+    <t>gonirisnftid</t>
+  </si>
+  <si>
+    <t>ibc/542551C3C21E3B4BD4A369669150319A752AAD852C73CD49BCD7ED338F785811</t>
+  </si>
+  <si>
+    <t>ibc/05D7CC1B4F9B6D66DDEC8CB8268A423E35BA8E3485E167274484FEBCC61558E1</t>
+  </si>
+  <si>
+    <t>goniriscollectionidA10</t>
+  </si>
+  <si>
+    <t>ibc/2A6EC7DAF7EFBB431B371D7F02C303B84A3E4D77A1DC2F08A47B9B1A1D9CA7BB</t>
+  </si>
+  <si>
+    <t>goniriscollectionidA11</t>
+  </si>
+  <si>
+    <t> ibc/D13574D62D1E18C58AD10A38D58AA09219293751018538D8EC9EC7A66C108A46</t>
+  </si>
+  <si>
+    <t>goniriscollectionidA12</t>
+  </si>
+  <si>
+    <t>87A4588C036D4004BF921B95ED416B2A60D33DD2CA07FAD720AAF189E12CAE8C</t>
   </si>
   <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
-    <t>27FA984A626D4A333620F922ACEF218916DE954609F1B0C8C95E9F7D5EE21095</t>
-  </si>
-  <si>
-    <t>ibc/3DF9E9559818ED497EB1ED304E6FD24E8AFDEEAECDE7473614E4405BB16D8B6F</t>
-  </si>
-  <si>
-    <t>ibc/A3A098114F82C97058B3891331B3FC0F43BCC36DFAC532427E8CBB5B682C384B</t>
-  </si>
-  <si>
-    <t>ibc/23B18086C6DB7F29AA4F95CFB7869A2499A010E10CCFCD4FFACAFCE1155287A0</t>
-  </si>
-  <si>
-    <t>gonirisnftid</t>
-  </si>
-  <si>
-    <t>ibc/542551C3C21E3B4BD4A369669150319A752AAD852C73CD49BCD7ED338F785811</t>
-  </si>
-  <si>
-    <t>ibc/05D7CC1B4F9B6D66DDEC8CB8268A423E35BA8E3485E167274484FEBCC61558E1</t>
-  </si>
-  <si>
-    <t>goniriscollectionidA10</t>
-  </si>
-  <si>
-    <t>ibc/2A6EC7DAF7EFBB431B371D7F02C303B84A3E4D77A1DC2F08A47B9B1A1D9CA7BB</t>
-  </si>
-  <si>
-    <t>goniriscollectionidA11</t>
-  </si>
-  <si>
-    <t> ibc/D13574D62D1E18C58AD10A38D58AA09219293751018538D8EC9EC7A66C108A46</t>
-  </si>
-  <si>
-    <t>goniriscollectionidA12</t>
-  </si>
-  <si>
-    <t>87A4588C036D4004BF921B95ED416B2A60D33DD2CA07FAD720AAF189E12CAE8C</t>
-  </si>
-  <si>
     <t>52DD9A337E184768B3A470653478A93B1A5358A7D89F14E168B3BB5B6D05E070</t>
   </si>
   <si>
@@ -208,9 +223,6 @@
     <t>CD4D9DA6C55631D1009E0E1B54F263292831C1D4908B0D5EDB491E0B426E6D66</t>
   </si>
   <si>
-    <t>uni-6</t>
-  </si>
-  <si>
     <t>16E1346A1BFCE239601BF2EA978E4ED0CB379A4C6669A62E0E8DBB054BEC5D98</t>
   </si>
   <si>
@@ -287,6 +299,18 @@
   </si>
   <si>
     <t>E08E307887F536D0E3BE4304B735961569DC88EE3BAFBE9CF06E76D21391F7DF</t>
+  </si>
+  <si>
+    <t>B64A5855394F755EC18EFC40CF868C1FE502941AE3D92D6673E55C2DBC7E4A2D</t>
+  </si>
+  <si>
+    <t>6F98E84DCFF466B7A97D5862A2ADC969D8EA53ED69625F9A02E6578DCE930A33</t>
+  </si>
+  <si>
+    <t>7B9E37F80E4C9F0E34B45A90BEF5A827D05FB5745DE93E5E3202BBD7D9746A18</t>
+  </si>
+  <si>
+    <t>F34C54C377DFAFA47A458AAB8350867E7EC0FE9C3B33B89C073E3A737651BEE8</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -300,12 +324,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -321,6 +345,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -340,12 +370,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -365,6 +389,18 @@
       <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6E6B7B"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -388,6 +424,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -395,8 +439,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +477,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -418,58 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -479,15 +525,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,29 +547,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -546,49 +582,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,133 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +781,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,16 +819,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,21 +840,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,186 +859,192 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1020,19 +1056,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1399,25 +1443,25 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1470,7 +1514,7 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -1488,13 +1532,13 @@
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="7"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
@@ -1538,10 +1582,10 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="3:3">
@@ -1551,10 +1595,10 @@
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1" spans="1:1">
-      <c r="A7" s="7"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
@@ -1600,12 +1644,11 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2"/>
+        <v>46</v>
+      </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -1621,10 +1664,10 @@
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="7"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="8"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
@@ -1669,10 +1712,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="4:4">
@@ -1723,41 +1766,40 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4"/>
+        <v>35</v>
+      </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1"/>
@@ -1766,10 +1808,10 @@
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1" spans="1:1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:1">
-      <c r="A12" s="8"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" ht="19" customHeight="1"/>
     <row r="14" ht="19" customHeight="1"/>
@@ -1805,41 +1847,40 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2"/>
+        <v>50</v>
+      </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="2:2">
@@ -1851,10 +1892,10 @@
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1" spans="1:1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:1">
-      <c r="A13" s="8"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" ht="19" customHeight="1"/>
     <row r="15" ht="19" customHeight="1"/>
@@ -1890,39 +1931,39 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1"/>
@@ -1930,10 +1971,10 @@
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
@@ -1970,54 +2011,54 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="7" t="s">
-        <v>60</v>
+      <c r="A9" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="8"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
@@ -2055,39 +2096,39 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1"/>
@@ -2134,49 +2175,49 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="7"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="8"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
@@ -2269,66 +2310,66 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="2:2">
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" ht="19" customHeight="1"/>
     <row r="13" ht="19" customHeight="1"/>
@@ -2350,7 +2391,7 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2366,65 +2407,65 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="45" customHeight="1" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
+      <c r="A11" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1"/>
@@ -2448,12 +2489,13 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2"/>
   <cols>
-    <col min="1" max="20" width="14" customWidth="1"/>
+    <col min="1" max="1" width="73.2403846153846" customWidth="1"/>
+    <col min="2" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:1">
@@ -2463,18 +2505,22 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
+    <row r="6" ht="19" customHeight="1" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
@@ -2500,12 +2546,13 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2"/>
   <cols>
-    <col min="1" max="20" width="14" customWidth="1"/>
+    <col min="1" max="1" width="82.2115384615385" customWidth="1"/>
+    <col min="2" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:1">
@@ -2515,20 +2562,24 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
+    <row r="8" ht="19" customHeight="1" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" ht="19" customHeight="1" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1"/>
@@ -2567,12 +2618,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2619,12 +2670,12 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
@@ -2656,7 +2707,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="2"/>
@@ -2682,10 +2733,10 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2693,15 +2744,35 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1"/>
-    <row r="5" ht="19" customHeight="1"/>
+    <row r="4" ht="19" customHeight="1" spans="1:3">
+      <c r="A4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:3">
+      <c r="A5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
@@ -2734,7 +2805,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="76.7596153846154" customWidth="1"/>
     <col min="2" max="2" width="98.875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="20" width="15" customWidth="1"/>
@@ -2751,21 +2822,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="2:2">
@@ -2800,12 +2871,13 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="70.5096153846154" customWidth="1"/>
+    <col min="2" max="2" width="59.9326923076923" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="20" width="15" customWidth="1"/>
   </cols>
@@ -2821,21 +2893,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>29</v>
+      <c r="D2" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="2:2">
@@ -2870,13 +2942,14 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="73.7115384615385" customWidth="1"/>
+    <col min="3" max="3" width="70.0288461538462" customWidth="1"/>
     <col min="4" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2891,21 +2964,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>32</v>
+      <c r="D2" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2937,15 +3010,15 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="44.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="55.4519230769231" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="20" width="15" customWidth="1"/>
   </cols>
@@ -2961,12 +3034,12 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
@@ -2975,7 +3048,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -3028,12 +3101,11 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="4:4">
@@ -3089,12 +3161,11 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2"/>
+        <v>41</v>
+      </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="4:4">
@@ -3104,7 +3175,7 @@
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1" spans="1:1">
-      <c r="A7" s="7"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>

--- a/fangqia/evidence.xlsx
+++ b/fangqia/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="13780" activeTab="6"/>
+    <workbookView windowWidth="29820" windowHeight="15240" tabRatio="1000" firstSheet="2" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="24" r:id="rId23"/>
     <sheet name="B5" sheetId="25" r:id="rId24"/>
     <sheet name="B6" sheetId="26" r:id="rId25"/>
+    <sheet name="B7" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
   <si>
     <t>TeamName</t>
   </si>
@@ -313,10 +314,22 @@
     <t>F34C54C377DFAFA47A458AAB8350867E7EC0FE9C3B33B89C073E3A737651BEE8</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>8B9021A3F6ED1340E3500C747FD014E16FE6EAAD1442AE8D47796F82EC39AB9C</t>
+  </si>
+  <si>
+    <t>D75BBABCF70F04E0F2FBD0E323A06563993AB9C9CF69924CB6DBE46AB70881F9</t>
+  </si>
+  <si>
+    <t>B0E1A84E1A1E6D63C2E2E20616FA216E0E65D1D82174F9E8185DA542AF8D3427</t>
+  </si>
+  <si>
+    <t>365F71EAAB3E1B02F5B360B867F6C68ABF217FE4C683F22E8D5A4173EBC76013</t>
+  </si>
+  <si>
+    <t>CB72717CBB8BFC3262679A06E83ADCD9DD1D06C53E818399DCD851814442B35A</t>
+  </si>
+  <si>
+    <t>1C76CF4394450AB793E42F59B6DFB609D75F5330F7CBB66F0BF68E3D2DEA89A7</t>
   </si>
 </sst>
 </file>
@@ -324,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -418,37 +431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +446,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,24 +498,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,30 +514,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -555,7 +529,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +595,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,19 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,151 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,17 +792,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,6 +844,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,210 +878,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1044,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1070,10 +1086,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1443,25 +1455,25 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1513,29 +1525,29 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="3:3">
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="3:3">
-      <c r="C4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
       <c r="A11" s="4"/>
@@ -1581,21 +1593,21 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="3:3">
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:1">
       <c r="A8" s="4"/>
@@ -1643,28 +1655,28 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" ht="19" customHeight="1"/>
     <row r="4" ht="19" customHeight="1" spans="4:4">
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="4:4">
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:1">
       <c r="A10" s="4"/>
@@ -1703,41 +1715,41 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="4:4">
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customHeight="1" spans="4:4">
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="4:4">
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="4:4">
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1773,7 +1785,7 @@
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1781,7 +1793,7 @@
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1789,16 +1801,16 @@
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1808,7 +1820,7 @@
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:1">
       <c r="A12" s="4"/>
@@ -1854,16 +1866,16 @@
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1871,7 +1883,7 @@
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1879,12 +1891,12 @@
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="2:2">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
@@ -1892,7 +1904,7 @@
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
     <row r="12" ht="19" customHeight="1" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:1">
       <c r="A13" s="4"/>
@@ -1938,7 +1950,7 @@
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1946,7 +1958,7 @@
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1954,7 +1966,7 @@
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1962,7 +1974,7 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1971,7 +1983,7 @@
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
       <c r="A11" s="4"/>
@@ -2018,7 +2030,7 @@
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
@@ -2029,7 +2041,7 @@
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2037,7 +2049,7 @@
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2045,7 +2057,7 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2053,7 +2065,7 @@
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2103,7 +2115,7 @@
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2111,7 +2123,7 @@
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2119,7 +2131,7 @@
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2127,7 +2139,7 @@
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2135,7 +2147,7 @@
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
     </row>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
@@ -2182,7 +2194,7 @@
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2190,7 +2202,7 @@
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2198,7 +2210,7 @@
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2206,7 +2218,7 @@
       <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2214,7 +2226,7 @@
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:1">
       <c r="A10" s="4"/>
@@ -2317,7 +2329,7 @@
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2325,7 +2337,7 @@
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2333,7 +2345,7 @@
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2341,7 +2353,7 @@
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2349,7 +2361,7 @@
       <c r="A6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2357,16 +2369,16 @@
       <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="2:2">
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
       <c r="A11" s="4"/>
@@ -2414,7 +2426,7 @@
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2422,7 +2434,7 @@
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2430,7 +2442,7 @@
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2438,7 +2450,7 @@
       <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2446,7 +2458,7 @@
       <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2454,17 +2466,17 @@
       <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="45" customHeight="1" spans="1:1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2516,7 +2528,7 @@
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1" spans="1:1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:1">
       <c r="A7" s="4"/>
@@ -2575,7 +2587,7 @@
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1" spans="1:1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:1">
       <c r="A9" s="4"/>
@@ -2603,12 +2615,13 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2"/>
   <cols>
-    <col min="1" max="20" width="14" customWidth="1"/>
+    <col min="1" max="1" width="118.115384615385" customWidth="1"/>
+    <col min="2" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:1">
@@ -2628,8 +2641,12 @@
     </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
-    <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
+    <row r="6" ht="19" customHeight="1" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
@@ -2655,12 +2672,13 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2"/>
   <cols>
-    <col min="1" max="20" width="14" customWidth="1"/>
+    <col min="1" max="1" width="82.8461538461538" customWidth="1"/>
+    <col min="2" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:1">
@@ -2670,19 +2688,80 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1"/>
-    <row r="8" ht="19" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="19" customHeight="1" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" ht="19" customHeight="1"/>
+    <row r="10" ht="19" customHeight="1"/>
+    <row r="11" ht="19" customHeight="1"/>
+    <row r="12" ht="19" customHeight="1"/>
+    <row r="13" ht="19" customHeight="1"/>
+    <row r="14" ht="19" customHeight="1"/>
+    <row r="15" ht="19" customHeight="1"/>
+    <row r="16" ht="19" customHeight="1"/>
+    <row r="17" ht="19" customHeight="1"/>
+    <row r="18" ht="19" customHeight="1"/>
+    <row r="19" ht="19" customHeight="1"/>
+    <row r="20" ht="19" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.2"/>
+  <cols>
+    <col min="1" max="1" width="89.1057692307692" customWidth="1"/>
+    <col min="2" max="20" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1"/>
+    <row r="5" ht="19" customHeight="1"/>
+    <row r="6" ht="19" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="19" customHeight="1" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
     <row r="9" ht="19" customHeight="1"/>
     <row r="10" ht="19" customHeight="1"/>
     <row r="11" ht="19" customHeight="1"/>
@@ -2733,10 +2812,10 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2744,18 +2823,18 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -2763,10 +2842,10 @@
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
@@ -2829,13 +2908,13 @@
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2900,13 +2979,13 @@
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2971,13 +3050,13 @@
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3010,7 +3089,7 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3047,7 +3126,7 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3100,21 +3179,21 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="4:4">
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1" spans="1:1">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
     </row>
     <row r="7" ht="19" customHeight="1"/>
     <row r="8" ht="19" customHeight="1"/>
@@ -3160,22 +3239,22 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="4:4">
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" ht="19" customHeight="1"/>
     <row r="5" ht="19" customHeight="1"/>
     <row r="6" ht="19" customHeight="1"/>
     <row r="7" ht="19" customHeight="1" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="9" ht="19" customHeight="1"/>
